--- a/data/user_messages.xlsx
+++ b/data/user_messages.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A10"/>
+  <dimension ref="A1:A14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -503,6 +503,34 @@
         </is>
       </c>
     </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>when was the last order i placed</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>hello</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>when was the last order i placed</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>when was the last order i placed</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/user_messages.xlsx
+++ b/data/user_messages.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A14"/>
+  <dimension ref="A1:A87"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -531,6 +531,517 @@
         </is>
       </c>
     </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>when was my last order placed</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>when was my last order placed</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>when was my last order placed</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>hello</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>sure</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>1758007</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>1758007</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>this is my order id</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>1758007</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>1758007</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>1758007</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>1758007</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>1758007</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>what is the order ststus</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>hello</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>when was the last order that was [laced</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>when was the last order placed</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>when was the last order placed</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>when was the last order placed</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>what is its order is</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>when was the last order placed</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>what is the orderid of the given order</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>when was the last order placed</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>when was the last order placed</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>when was the last order placed</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>what is the time taken for average by my csotains</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>what is the time taken for average by my csotains</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>what is the time taken for average by my csotains</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>ehat was the latest order</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>what is the latest order date</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>latest 10 order status</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>list order ids of these orders</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>what is the delivery status of 1757810</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>which captain delivered this order</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>what are the last 10 orders</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>list their order id's</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>1757810</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>last order placedd date</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>when was the last order placed</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>when was the last order placed</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>when was the last order placed</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>when was the last order placed</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>when was the last order placed</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>when was the last order placed</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>when was the last order placed</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>when was the last order placed</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>when was the last order placed</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>when was my last order placed</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>when was my last order placed</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>what is the order d of this?</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>when was my last order placed</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>when was my last order placed</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>what is the order id of this order</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>which captain delivered this order</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>which captain delivered this order</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>when was my last order laced</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>what is the order id of this order</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>when was my last order laced</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>when was my last order laced</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>when was my last order placed</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>hello</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>how are you</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>can you give me the order id of the order that took maximum time for delivery</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>can you give me the order id of the order that took maximum time for delivery</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>can you give me the order id of the order that took maximum time for delivery</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>can you give me the order id of the order that took maximum time for delivery</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>can you give me the order id of the order that took maximum time for delivery</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>can you give me the order id of the order that took maximum time for delivery</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>can you give me the order id of the order that took maximum time for delivery</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>can you give me the order id of the order that took maximum time for delivery</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>can you give me the order id of the order that took maximum time for delivery</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>can you give me the order id of the order that took maximum time for delivery</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>can you give me the order id of the order that took maximum time for delivery</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/user_messages.xlsx
+++ b/data/user_messages.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A87"/>
+  <dimension ref="A1:A98"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1042,6 +1042,83 @@
         </is>
       </c>
     </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>hello</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>when was the last order placed</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>who delivered it</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>who delivered it</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>who delivered it'</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>when was the last order placed</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>when was the last order placed</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>when was my last order placed</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>when was my last order placed</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>who was the captain ?</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>what is the order id of this order</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/user_messages.xlsx
+++ b/data/user_messages.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A98"/>
+  <dimension ref="A1:A110"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1119,6 +1119,90 @@
         </is>
       </c>
     </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>hello</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>ello</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>hi</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>hello</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>what is order status</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>what is order status</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>hello</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>what is order status</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>what is order status</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>what is status of last order</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>when was it ?</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>when was the last order delivered?</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/user_messages.xlsx
+++ b/data/user_messages.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A110"/>
+  <dimension ref="A1:A148"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1203,6 +1203,272 @@
         </is>
       </c>
     </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>when was the latest order delivered?</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>when was the last order delivered?</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>when was the last order delivered?</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>when was the last order delivered?</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>when was the last order delivered?</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>when was the last order delivered?</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>when was the latest order delivered?</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>when was the first order delivered?</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>when was the first order delivered?</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>when was the latest order delivered?</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>Show all delivered orders</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>Show all delivered orders</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>Find cancelled orders</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>how many orders in total</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>HOW MANY ORDERS are there in total</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>HOW MANY ORDERS are there in total</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>HOW MANY ORDERS are there in total</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>hello</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>i want wrigjnrnsefljvhnvidjbnb</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>incryghferjcm</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>wht is leajlak</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>what is leajlak</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>what is leajlak</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>wht are the latest orders</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>dnfdhnfhjfshjf</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>yesterdays order status</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>what happened to the last order i had</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>hello</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>what is the status of my last order</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>hello</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>what is the order status</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>hello</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>what is th order tatsts</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>hello</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>eee</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>hello</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>hello</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>when was my last order placed</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/user_messages.xlsx
+++ b/data/user_messages.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A148"/>
+  <dimension ref="A1:A161"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1469,6 +1469,97 @@
         </is>
       </c>
     </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>ddddddddddddddddd</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>hii</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>when was the last order placed</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>what model do you use</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>what model do you use</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>when was th last order placed</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>when was th last order placed</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>when was th last order placed</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>when was th last order placed</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>when was th last order placed</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>when was th last order placed</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>what is its order id</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>who deivered the last order</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/user_messages.xlsx
+++ b/data/user_messages.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A161"/>
+  <dimension ref="A1:A169"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1560,6 +1560,62 @@
         </is>
       </c>
     </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>when was the last order placed</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>when was the last order placed</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>what is its order id</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>when was the last order placed</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>when was the last order placed</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>when was the last order place</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>what is its order id</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>when was the last order place</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/user_messages.xlsx
+++ b/data/user_messages.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A169"/>
+  <dimension ref="A1:A176"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1616,6 +1616,55 @@
         </is>
       </c>
     </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>hey</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>hi</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>hi</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>hi</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>dd</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>d</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>when was the lasst order placed</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/user_messages.xlsx
+++ b/data/user_messages.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A176"/>
+  <dimension ref="A1:A186"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1665,6 +1665,76 @@
         </is>
       </c>
     </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>who delivered it</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>what is its order id</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>1823361 fetch details of this order</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>1823361</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>1823361</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>1823361 fetch details of this order</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>1823361</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>1823361</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>1823361</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>1823361</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/user_messages.xlsx
+++ b/data/user_messages.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A186"/>
+  <dimension ref="A1:A195"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1735,6 +1735,69 @@
         </is>
       </c>
     </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>hello</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>what is the order status</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>what is the roode rstatsus</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>what is order status in july</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>what is order status in july</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>what is order number of the latest order i plaved in july</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>wht is its status</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>what is the status of  1823383.</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>list all the orders i placed in july</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/user_messages.xlsx
+++ b/data/user_messages.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A195"/>
+  <dimension ref="A1:A186"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1735,69 +1735,6 @@
         </is>
       </c>
     </row>
-    <row r="187">
-      <c r="A187" t="inlineStr">
-        <is>
-          <t>hello</t>
-        </is>
-      </c>
-    </row>
-    <row r="188">
-      <c r="A188" t="inlineStr">
-        <is>
-          <t>what is the order status</t>
-        </is>
-      </c>
-    </row>
-    <row r="189">
-      <c r="A189" t="inlineStr">
-        <is>
-          <t>what is the roode rstatsus</t>
-        </is>
-      </c>
-    </row>
-    <row r="190">
-      <c r="A190" t="inlineStr">
-        <is>
-          <t>what is order status in july</t>
-        </is>
-      </c>
-    </row>
-    <row r="191">
-      <c r="A191" t="inlineStr">
-        <is>
-          <t>what is order status in july</t>
-        </is>
-      </c>
-    </row>
-    <row r="192">
-      <c r="A192" t="inlineStr">
-        <is>
-          <t>what is order number of the latest order i plaved in july</t>
-        </is>
-      </c>
-    </row>
-    <row r="193">
-      <c r="A193" t="inlineStr">
-        <is>
-          <t>wht is its status</t>
-        </is>
-      </c>
-    </row>
-    <row r="194">
-      <c r="A194" t="inlineStr">
-        <is>
-          <t>what is the status of  1823383.</t>
-        </is>
-      </c>
-    </row>
-    <row r="195">
-      <c r="A195" t="inlineStr">
-        <is>
-          <t>list all the orders i placed in july</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/user_messages.xlsx
+++ b/data/user_messages.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A186"/>
+  <dimension ref="A1:A239"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1735,6 +1735,378 @@
         </is>
       </c>
     </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>what is the order status</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>what is the order statsus</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>when was the last order placed</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>when was the last order placed</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>when was the last order placed</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>what is the orxer status</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>what is the order number of latest order</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>what is the order number of latest order</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>what is the order number of latest order</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>what is the order number of latest order</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>what is the order number of latest order</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>what is the order number of latest order</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>what is the order number of latest order</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>who delivered it</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>what is the order number of latest order</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>whoe delivered it</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>what is the order number of latest order</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>what is the order number of latest order</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>what is the order number of latest order</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>what is the order number of latest order</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>what is the order number of latest order</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>what is the order number of latest order</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>who delivered it</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>who delivered the order id 1823358</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>who delivered the order id 1823358</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>what is the total number of orders in july</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>how many of them are delivered ?</t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>in july?</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>total delivered orders from july</t>
+        </is>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>total delivered orders from july</t>
+        </is>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>total delivered orders in july</t>
+        </is>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>total delivered orders in july</t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>total delivered orders in july</t>
+        </is>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>total delivered orders in july</t>
+        </is>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>total delivered orders in july</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>total delivered orders in july</t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>total delivered orders in july</t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>Can I get the details of the order created on 2025-07-21 at 19:12:34?</t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>Can you tell me all canceled orders for me?</t>
+        </is>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>What is the final status timestamp of my last order?</t>
+        </is>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>Which of my orders are still in “Cancel Request Accepted” status?</t>
+        </is>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>Can you show me orders delivered between July 20 and July 25?</t>
+        </is>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>Show me the orders that started their ride after 7 PM.</t>
+        </is>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>Show me the orders that started their ride after 7 PM..</t>
+        </is>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>Can you show me orders delivered between July 20 and July 25?</t>
+        </is>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>Show me orders that reached the destination after 19:35.</t>
+        </is>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>Show me orders that reached the destination after 19:35.</t>
+        </is>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>Show me orders that reached the destination after 19:35.</t>
+        </is>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>Can I get the most recent 5 orders based on order_created_at?</t>
+        </is>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>Can I get the most recent 5 orders based on order_created_at?
+in july</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>Can I get the most recent 5 orders based on order_created_at? in july</t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>Can I get the most recent 5 orders based on order_created_at? in july</t>
+        </is>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>Can I get the most recent 5 orders based on order_created_at? in july</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/user_messages.xlsx
+++ b/data/user_messages.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A239"/>
+  <dimension ref="A1:A246"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2107,6 +2107,55 @@
         </is>
       </c>
     </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>Show me the orders that started their ride after 7 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>Show me the orders that started their ride after 7 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>Show me the orders that started their ride after 7 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>Show me the orders that started their ride after 7 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>Show me the orders that started their ride after 7 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>Show me the orders that started their ride after 7 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>Show me the orders that started their ride after 7 PM</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/user_messages.xlsx
+++ b/data/user_messages.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A246"/>
+  <dimension ref="A1:A261"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2156,6 +2156,111 @@
         </is>
       </c>
     </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>hello</t>
+        </is>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>how are you</t>
+        </is>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>what is the latest order status</t>
+        </is>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>hi</t>
+        </is>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>50505050 what is the status of this order?</t>
+        </is>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>what is leajlak</t>
+        </is>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>do they have mobile app</t>
+        </is>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>who is the app end user</t>
+        </is>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>who are the founders of leajlak</t>
+        </is>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>hello</t>
+        </is>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>who  is the founder of leajlak</t>
+        </is>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>i need info on that info</t>
+        </is>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>who is the founder of leajlak</t>
+        </is>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>when</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/user_messages.xlsx
+++ b/data/user_messages.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A261"/>
+  <dimension ref="A1:A263"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2261,6 +2261,20 @@
         </is>
       </c>
     </row>
+    <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>hello</t>
+        </is>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>what is the total number of orders in july</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
